--- a/Carer Schedule.xlsx
+++ b/Carer Schedule.xlsx
@@ -7,31 +7,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Carers" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result4" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result5" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result6" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result7" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result8" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result9" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result10" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result11" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result12" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result13" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result14" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result15" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result16" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result17" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result18" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result19" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result20" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result21" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result22" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result23" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result24" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result25" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Merge_Result26" sheetId="29" state="visible" r:id="rId29"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41,20 +16,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Arial"/>
       <color theme="1"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -76,13 +52,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -307,46 +282,46 @@
       <c r="B1" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="E1" s="3" t="n">
+      <c r="E1" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="F1" s="3" t="n">
+      <c r="F1" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="G1" s="2" t="n">
         <v>1.7</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="H1" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="I1" s="2" t="n">
         <v>1.9</v>
       </c>
-      <c r="J1" s="3" t="n">
+      <c r="J1" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="K1" s="3" t="n">
+      <c r="K1" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="L1" s="3" t="n">
+      <c r="L1" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="M1" s="3" t="n">
+      <c r="M1" s="2" t="n">
         <v>2.4</v>
       </c>
-      <c r="O1" s="3" t="n">
+      <c r="O1" s="2" t="n">
         <v>2.7</v>
       </c>
-      <c r="P1" s="3" t="n">
+      <c r="P1" s="2" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q1" s="3" t="n">
+      <c r="Q1" s="2" t="n">
         <v>2.9</v>
       </c>
-      <c r="R1" s="3" t="n">
+      <c r="R1" s="2" t="n">
         <v>3.1</v>
       </c>
       <c r="S1" s="2" t="n">
@@ -358,34 +333,34 @@
       <c r="U1" s="2" t="n">
         <v>3.4</v>
       </c>
-      <c r="V1" s="3" t="n">
+      <c r="V1" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="W1" s="3" t="n">
+      <c r="W1" s="2" t="n">
         <v>3.7</v>
       </c>
-      <c r="X1" s="3" t="n">
+      <c r="X1" s="2" t="n">
         <v>3.8</v>
       </c>
-      <c r="Y1" s="3" t="n">
+      <c r="Y1" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="Z1" s="3" t="n">
+      <c r="Z1" s="2" t="n">
         <v>4.1</v>
       </c>
-      <c r="AA1" s="3" t="n">
+      <c r="AA1" s="2" t="n">
         <v>4.2</v>
       </c>
-      <c r="AC1" s="3" t="n">
+      <c r="AC1" s="2" t="n">
         <v>4.4</v>
       </c>
-      <c r="AD1" s="3" t="n">
+      <c r="AD1" s="2" t="n">
         <v>4.6</v>
       </c>
-      <c r="AF1" s="3" t="n">
+      <c r="AF1" s="2" t="n">
         <v>4.8</v>
       </c>
-      <c r="AG1" s="3" t="n">
+      <c r="AG1" s="2" t="n">
         <v>4.9</v>
       </c>
     </row>
@@ -395,49 +370,49 @@
           <t>Subject 2</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="2" t="n">
         <v>1.7</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2" t="n">
         <v>1.9</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="L2" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="2" t="n">
         <v>2.4</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2" s="2" t="n">
         <v>2.6</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="2" t="n">
         <v>2.7</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="2" t="n">
         <v>2.8</v>
       </c>
       <c r="S2" s="2" t="n">
@@ -471,31 +446,31 @@
           <t>Subject 3</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="2" t="n">
         <v>1.7</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="2" t="n">
         <v>1.9</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="2" t="n">
         <v>2.6</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="2" t="n">
         <v>2.7</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="P3" s="2" t="n">
         <v>2.8</v>
       </c>
       <c r="S3" s="2" t="n">
@@ -526,31 +501,31 @@
           <t>Subject 4</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="2" t="n">
         <v>2.4</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4" s="2" t="n">
         <v>2.6</v>
       </c>
       <c r="U4" s="2" t="n">
@@ -584,28 +559,28 @@
           <t>Subject 5</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="2" t="n">
         <v>1.7</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="2" t="n">
         <v>1.9</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="N5" s="2" t="n">
         <v>2.6</v>
       </c>
       <c r="U5" s="2" t="n">
@@ -627,19 +602,19 @@
           <t>Subject 6</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="2" t="n">
         <v>2.2</v>
       </c>
       <c r="W6" s="2" t="n">
@@ -664,34 +639,34 @@
           <t>Subject 7</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="2" t="n">
         <v>1.7</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="2" t="n">
         <v>1.9</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="2" t="n">
         <v>2.6</v>
       </c>
-      <c r="Q7" s="3" t="n">
+      <c r="Q7" s="2" t="n">
         <v>2.9</v>
       </c>
       <c r="W7" s="2" t="n">
@@ -719,22 +694,22 @@
           <t>Subject 8</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="2" t="n">
         <v>1.9</v>
       </c>
-      <c r="L8" s="3" t="n">
+      <c r="L8" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="M8" s="2" t="n">
         <v>2.4</v>
       </c>
       <c r="Z8" s="2" t="n">
@@ -750,25 +725,25 @@
           <t>Subject 9</t>
         </is>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="J9" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="L9" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="M9" s="2" t="n">
         <v>2.4</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="2" t="n">
         <v>2.6</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="2" t="n">
         <v>2.9</v>
       </c>
       <c r="R9" s="2" t="n">
@@ -799,28 +774,28 @@
       <c r="B10" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="2" t="n">
         <v>1.7</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="J10" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="L10" s="2" t="n">
         <v>2.3</v>
       </c>
       <c r="R10" s="2" t="n">
@@ -848,40 +823,40 @@
           <t>Subject 11</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="2" t="n">
         <v>1.7</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="2" t="n">
         <v>1.9</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="L11" s="3" t="n">
+      <c r="L11" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="N11" s="2" t="n">
         <v>2.6</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="O11" s="2" t="n">
         <v>2.7</v>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="P11" s="2" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q11" s="3" t="n">
+      <c r="Q11" s="2" t="n">
         <v>2.9</v>
       </c>
       <c r="R11" s="2" t="n">
@@ -912,28 +887,28 @@
           <t>Subject 12</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="2" t="n">
         <v>1.9</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="J12" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="M12" s="2" t="n">
         <v>2.4</v>
       </c>
-      <c r="O12" s="3" t="n">
+      <c r="O12" s="2" t="n">
         <v>2.7</v>
       </c>
-      <c r="P12" s="3" t="n">
+      <c r="P12" s="2" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q12" s="3" t="n">
+      <c r="Q12" s="2" t="n">
         <v>2.9</v>
       </c>
       <c r="S12" s="2" t="n">
@@ -958,43 +933,43 @@
           <t>Subject 13</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="2" t="n">
         <v>1.7</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="K13" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="L13" s="3" t="n">
+      <c r="L13" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M13" s="2" t="n">
         <v>2.4</v>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="N13" s="2" t="n">
         <v>2.6</v>
       </c>
-      <c r="O13" s="3" t="n">
+      <c r="O13" s="2" t="n">
         <v>2.7</v>
       </c>
-      <c r="P13" s="3" t="n">
+      <c r="P13" s="2" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q13" s="3" t="n">
+      <c r="Q13" s="2" t="n">
         <v>2.9</v>
       </c>
       <c r="S13" s="2" t="n">
@@ -1034,28 +1009,28 @@
           <t>Subject 14</t>
         </is>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="2" t="n">
         <v>1.7</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="2" t="n">
         <v>1.9</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="J14" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="O14" s="3" t="n">
+      <c r="O14" s="2" t="n">
         <v>2.7</v>
       </c>
-      <c r="P14" s="3" t="n">
+      <c r="P14" s="2" t="n">
         <v>2.8</v>
       </c>
       <c r="R14" s="2" t="n">
@@ -1086,40 +1061,40 @@
           <t>Subject 15</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="2" t="n">
         <v>1.1</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="J15" s="3" t="n">
+      <c r="J15" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="K15" s="3" t="n">
+      <c r="K15" s="2" t="n">
         <v>2.2</v>
       </c>
-      <c r="L15" s="3" t="n">
+      <c r="L15" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="N15" s="3" t="n">
+      <c r="N15" s="2" t="n">
         <v>2.6</v>
       </c>
-      <c r="O15" s="3" t="n">
+      <c r="O15" s="2" t="n">
         <v>2.7</v>
       </c>
-      <c r="P15" s="3" t="n">
+      <c r="P15" s="2" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q15" s="3" t="n">
+      <c r="Q15" s="2" t="n">
         <v>2.9</v>
       </c>
       <c r="R15" s="2" t="n">
@@ -1151,186 +1126,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1370,10 +1165,10 @@
       <c r="F1" s="2" t="n">
         <v>4.2</v>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="G1" s="2" t="n">
         <v>4.1</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="H1" s="2" t="n">
         <v>4.4</v>
       </c>
       <c r="I1" s="2" t="n">
@@ -1392,19 +1187,19 @@
       <c r="C2" s="2" t="n">
         <v>2.3</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="2" t="n">
         <v>4.2</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="2" t="n">
         <v>3.9</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>3.2</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="2" t="n">
         <v>1.2</v>
       </c>
       <c r="I2" s="2" t="n">
@@ -1432,10 +1227,10 @@
       <c r="F3" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="2" t="n">
         <v>3.7</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="2" t="n">
         <v>4.4</v>
       </c>
       <c r="I3" s="2" t="n">
@@ -1463,10 +1258,10 @@
       <c r="F4" s="2" t="n">
         <v>2.4</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="2" t="n">
         <v>3.3</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="2" t="n">
         <v>3.7</v>
       </c>
       <c r="I4" s="2" t="n">
@@ -1494,10 +1289,10 @@
       <c r="F5" s="2" t="n">
         <v>4.3</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="2" t="n">
         <v>3.9</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="2" t="n">
         <v>4.7</v>
       </c>
       <c r="I5" s="2" t="n">
@@ -1505,186 +1300,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1695,7 +1310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:AG15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1706,19 +1321,2505 @@
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>Hello</t>
+          <t>Subject 1</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>['Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="R1" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="S1" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T1" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="U1" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="V1" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="W1" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X1" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="Y1" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo', 'Baby']</t>
+        </is>
+      </c>
+      <c r="Z1" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="AA1" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Ash']</t>
+        </is>
+      </c>
+      <c r="AB1" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AC1" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo']</t>
+        </is>
+      </c>
+      <c r="AD1" s="0" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE1" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AF1" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="AG1" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Subject 2</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M2" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="N2" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O2" s="0" t="inlineStr">
+        <is>
+          <t>['Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="P2" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="Q2" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="R2" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S2" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T2" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="U2" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V2" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W2" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="X2" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y2" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo', 'Baby']</t>
+        </is>
+      </c>
+      <c r="Z2" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="AA2" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB2" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="AC2" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD2" s="0" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE2" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF2" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG2" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Subject 3</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L3" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M3" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="N3" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O3" s="0" t="inlineStr">
+        <is>
+          <t>['Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="P3" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="Q3" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="R3" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S3" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T3" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U3" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="V3" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W3" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X3" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="Y3" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Z3" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA3" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Ash']</t>
+        </is>
+      </c>
+      <c r="AB3" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="AC3" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD3" s="0" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE3" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AF3" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG3" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Subject 4</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M4" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="N4" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O4" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="P4" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Q4" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="R4" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S4" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="T4" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U4" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="V4" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="W4" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X4" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="Y4" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Z4" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA4" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB4" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="AC4" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo']</t>
+        </is>
+      </c>
+      <c r="AD4" s="0" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE4" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AF4" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG4" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Subject 5</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="M5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="N5" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="P5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Q5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="R5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="T5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U5" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="V5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="X5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y5" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo', 'Baby']</t>
+        </is>
+      </c>
+      <c r="Z5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AC5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AE5" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF5" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG5" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Subject 6</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="M6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="N6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="O6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="P6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Q6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="R6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="T6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W6" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Z6" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="AA6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB6" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="AC6" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo']</t>
+        </is>
+      </c>
+      <c r="AD6" s="0" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AF6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG6" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Subject 7</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O7" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="P7" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="R7" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S7" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="T7" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U7" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V7" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo', 'Baby']</t>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Ash']</t>
+        </is>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AC7" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD7" s="0" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE7" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF7" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG7" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Subject 8</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M8" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="N8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="O8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="P8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Q8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="R8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="T8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="X8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Z8" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="AA8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AC8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AE8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AF8" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG8" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Subject 9</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M9" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="N9" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="P9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Q9" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="R9" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="S9" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T9" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="U9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Z9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AC9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AE9" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF9" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="AG9" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Subject 10</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="N10" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="O10" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="P10" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Q10" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="R10" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="S10" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T10" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U10" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V10" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W10" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="X10" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y10" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Z10" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA10" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB10" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AC10" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD10" s="0" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE10" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF10" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="AG10" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Subject 11</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="N11" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O11" s="0" t="inlineStr">
+        <is>
+          <t>['Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="P11" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="Q11" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="R11" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="S11" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="T11" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="U11" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V11" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y11" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Z11" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="AA11" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Ash']</t>
+        </is>
+      </c>
+      <c r="AB11" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="AC11" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD11" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AE11" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF11" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="AG11" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Subject 12</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="N12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="O12" s="0" t="inlineStr">
+        <is>
+          <t>['Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="P12" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="Q12" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="R12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S12" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V12" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="W12" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Z12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB12" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="AC12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD12" s="0" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AF12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG12" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Subject 13</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="N13" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O13" s="0" t="inlineStr">
+        <is>
+          <t>['Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="P13" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="Q13" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="R13" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S13" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T13" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="U13" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="V13" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="W13" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="X13" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="Y13" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo', 'Baby']</t>
+        </is>
+      </c>
+      <c r="Z13" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="AA13" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB13" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AC13" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD13" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AE13" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF13" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="AG13" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Subject 14</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="N14" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="O14" s="0" t="inlineStr">
+        <is>
+          <t>['Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="P14" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="Q14" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="R14" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="S14" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T14" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U14" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V14" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W14" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X14" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y14" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo', 'Baby']</t>
+        </is>
+      </c>
+      <c r="Z14" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA14" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB14" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="AC14" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD14" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AE14" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF14" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG14" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Subject 15</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="N15" s="0" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O15" s="0" t="inlineStr">
+        <is>
+          <t>['Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="P15" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="Q15" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="R15" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="S15" s="0" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T15" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U15" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V15" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y15" s="0" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo', 'Baby']</t>
+        </is>
+      </c>
+      <c r="Z15" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA15" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB15" s="0" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="AC15" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo']</t>
+        </is>
+      </c>
+      <c r="AD15" s="0" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE15" s="0" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF15" s="0" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="AG15" s="0" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
         </is>
       </c>
     </row>
@@ -1733,104 +3834,2618 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I1" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J1" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K1" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L1" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M1" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N1" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O1" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P1" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S1" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T1" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V1" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W1" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="X1" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Subject 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>['Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>['Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo', 'Baby']</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>['Ken', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>['Ken', 'Ash']</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo']</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Subject 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>['Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>['Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo', 'Baby']</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>['Ken', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Subject 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>['Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>['Ken', 'Ash']</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Subject 4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>['Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo']</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Subject 5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo', 'Baby']</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Subject 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>['Ken', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo']</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Subject 7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo', 'Baby']</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>['Ken', 'Ash']</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Subject 8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>['Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>['Ken', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Subject 9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>['Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Subject 10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Subject 11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>['Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>['Ken', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>['Ken', 'Ash']</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Subject 12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>['Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>['Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Subject 13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>['Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>['Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo', 'Baby']</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>['Ken', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Subject 14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['Teddy']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>['Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo', 'Baby']</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Subject 15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>['Ash', 'Baby']</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>['Ash', 'Teddy', 'Baby']</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>['Ken']</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>['Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>['Ash']</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo', 'Teddy']</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>['Ash', 'Foo', 'Baby']</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>['Baby']</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>['Ken', 'Foo']</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>['Foo']</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>['Ken', 'Baby']</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>['--找不到關懷員匹配--']</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>['--此時段不適用--']</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>